--- a/junhee20230309/Assets/ExcelDB/DialogueDB.xlsx
+++ b/junhee20230309/Assets/ExcelDB/DialogueDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>다이얼로그 테스트 다이얼로그 테스트 다이얼로그 테스트 002</t>
   </si>
   <si>
@@ -198,6 +194,14 @@
   </si>
   <si>
     <t>이름_021</t>
+  </si>
+  <si>
+    <t>다이얼로그 테스트 임포트 해야되는지 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기에 있는 데이터를 바꿔도 임포트한게 실시간으로 저장되어 바꾼 그대로 출력된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -525,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -573,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -596,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
@@ -619,7 +623,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -642,7 +646,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -665,7 +669,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
@@ -688,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -711,7 +715,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
@@ -734,7 +738,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
@@ -757,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
@@ -780,7 +784,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
@@ -803,7 +807,7 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
@@ -826,7 +830,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
@@ -849,7 +853,7 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
         <v>27</v>
@@ -872,7 +876,7 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
         <v>27</v>
@@ -895,7 +899,7 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
@@ -918,7 +922,7 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
         <v>27</v>
@@ -941,7 +945,7 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
         <v>27</v>
@@ -964,7 +968,7 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
@@ -987,7 +991,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
         <v>27</v>
@@ -1010,7 +1014,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
         <v>27</v>
@@ -1030,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
         <v>27</v>
@@ -1043,6 +1047,11 @@
       </c>
       <c r="G22">
         <v>-100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
